--- a/conde_paris.xlsx
+++ b/conde_paris.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hot List 2023   Readers' Choice Awards 2023</t>
+          <t>Hot List, 2023. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -537,7 +537,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hot List 2022</t>
+          <t>Hot List, 2022.</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -605,7 +605,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gold List 2018, 2020, 2024   Hot List 2017   Readers' Choice Awards 2017, 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Gold List, 2018. Gold List, 2020. Gold List, 2024. Hot List, 2017. Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -680,7 +680,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gold List 2018   Readers' Choice Awards 2017, 2018, 2019</t>
+          <t>Gold List, 2018. Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019.</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -727,7 +727,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2017, 2018</t>
+          <t>Readers' Choice Awards, 2017. Readers' Choice Awards, 2018.</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -783,7 +783,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hot List 2016   Readers' Choice Awards 2016, 2018</t>
+          <t>Hot List, 2016. Readers' Choice Awards, 2016. Readers' Choice Awards, 2018.</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -878,7 +878,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hot List 2022   Readers' Choice Awards 2017, 2018, 2019</t>
+          <t>Hot List, 2022. Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019.</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -930,7 +930,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2022</t>
+          <t>Readers' Choice Awards, 2022.</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2017, 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Gold List 2018, 2020, 2021, 2022   Readers' Choice Awards 2017, 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Gold List, 2018. Gold List, 2020. Gold List, 2021. Gold List, 2022. Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gold List 2020   Readers' Choice Awards 2019, 2020, 2021, 2022, 2023</t>
+          <t>Gold List, 2020. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2017, 2018, 2019, 2020, 2021, 2023</t>
+          <t>Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2019, 2021</t>
+          <t>Readers' Choice Awards, 2019. Readers' Choice Awards, 2021.</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hot List 2017</t>
+          <t>Hot List, 2017.</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hot List 2015   Readers' Choice Awards 2017, 2018, 2019, 2020, 2021, 2022</t>
+          <t>Hot List, 2015. Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022.</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Gold List 2020, 2023   Readers' Choice Awards 2017, 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Gold List, 2020. Gold List, 2023. Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gold List 2018   Readers' Choice Awards 2018</t>
+          <t>Gold List, 2018. Readers' Choice Awards, 2018.</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Gold List 2018, 2019, 2020, 2023   Hot List 2018   Readers' Choice Awards 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Gold List, 2018. Gold List, 2019. Gold List, 2020. Gold List, 2023. Hot List, 2018. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hot List 2021</t>
+          <t>Hot List, 2021.</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hot List 2020</t>
+          <t>Hot List, 2020.</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hot List 2020</t>
+          <t>Hot List, 2020.</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2017, 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2017, 2018, 2019, 2020, 2021, 2023</t>
+          <t>Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Gold List 2018   Readers' Choice Awards 2017, 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Gold List, 2018. Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2022</t>
+          <t>Readers' Choice Awards, 2022.</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hot List 2022   Readers' Choice Awards 2022, 2023</t>
+          <t>Hot List, 2022. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Gold List 2018</t>
+          <t>Gold List, 2018.</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2017, 2018</t>
+          <t>Readers' Choice Awards, 2017. Readers' Choice Awards, 2018.</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hot List 2020</t>
+          <t>Hot List, 2020.</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Gold List 2018   Hot List 2015   Readers' Choice Awards 2017, 2018, 2019, 2020, 2022, 2023</t>
+          <t>Gold List, 2018. Hot List, 2015. Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hot List 2018</t>
+          <t>Hot List, 2018.</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gold List 2018, 2019, 2020   Readers' Choice Awards 2017, 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Gold List, 2018. Gold List, 2019. Gold List, 2020. Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C47" t="n">
